--- a/CurrentWork/ParametersForAlleeModel/ourData2010&2011.xlsx
+++ b/CurrentWork/ParametersForAlleeModel/ourData2010&2011.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Overcot\Dropbox\magistr\TryingToGetParametersForOurNewModel_05_06_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\diplom\CurrentWork\ParametersForAlleeModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2995728E-FDCF-4708-833F-BDE2E202F336}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Recruitment</t>
   </si>
@@ -40,14 +41,11 @@
   <si>
     <t>Year</t>
   </si>
-  <si>
-    <t>Множитель</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,11 +402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,11 +417,13 @@
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5">
         <v>2010</v>
       </c>
@@ -435,8 +435,15 @@
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -462,10 +469,19 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1963</v>
       </c>
@@ -476,7 +492,6 @@
         <v>249718</v>
       </c>
       <c r="D3">
-        <f>$C3*$I$3</f>
         <v>249718000</v>
       </c>
       <c r="E3" s="1">
@@ -489,14 +504,22 @@
         <v>285501</v>
       </c>
       <c r="H3">
-        <f>$G3*$I$3</f>
         <v>285501000</v>
       </c>
-      <c r="I3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>1963</v>
+      </c>
+      <c r="J3">
+        <v>151903</v>
+      </c>
+      <c r="K3">
+        <v>487478</v>
+      </c>
+      <c r="L3">
+        <v>487478000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1964</v>
       </c>
@@ -507,7 +530,6 @@
         <v>462750</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D49" si="0">$C4*$I$3</f>
         <v>462750000</v>
       </c>
       <c r="E4" s="1">
@@ -520,11 +542,22 @@
         <v>520216</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H50" si="1">$G4*$I$3</f>
         <v>520216000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>1964</v>
+      </c>
+      <c r="J4">
+        <v>163081</v>
+      </c>
+      <c r="K4">
+        <v>802109</v>
+      </c>
+      <c r="L4">
+        <v>802109000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1965</v>
       </c>
@@ -535,7 +568,6 @@
         <v>687286</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>687286000</v>
       </c>
       <c r="E5" s="1">
@@ -548,11 +580,22 @@
         <v>654090</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
         <v>654090000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>1965</v>
+      </c>
+      <c r="J5">
+        <v>199187</v>
+      </c>
+      <c r="K5">
+        <v>1042362</v>
+      </c>
+      <c r="L5">
+        <v>1042362000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1966</v>
       </c>
@@ -563,7 +606,6 @@
         <v>835166</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>835166000</v>
       </c>
       <c r="E6" s="1">
@@ -576,11 +618,22 @@
         <v>838190</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
         <v>838190000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>1966</v>
+      </c>
+      <c r="J6">
+        <v>221239</v>
+      </c>
+      <c r="K6">
+        <v>1271872</v>
+      </c>
+      <c r="L6">
+        <v>1271872000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1967</v>
       </c>
@@ -591,7 +644,6 @@
         <v>748976</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>748976000</v>
       </c>
       <c r="E7" s="1">
@@ -604,11 +656,22 @@
         <v>771429</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
         <v>771429000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>1967</v>
+      </c>
+      <c r="J7">
+        <v>249946</v>
+      </c>
+      <c r="K7">
+        <v>1074107</v>
+      </c>
+      <c r="L7">
+        <v>1074107000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1968</v>
       </c>
@@ -619,7 +682,6 @@
         <v>329855</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
         <v>329855000</v>
       </c>
       <c r="E8" s="1">
@@ -632,11 +694,22 @@
         <v>404740</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
         <v>404740000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>1968</v>
+      </c>
+      <c r="J8">
+        <v>260928</v>
+      </c>
+      <c r="K8">
+        <v>544161</v>
+      </c>
+      <c r="L8">
+        <v>544161000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1969</v>
       </c>
@@ -647,7 +720,6 @@
         <v>295479</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
         <v>295479000</v>
       </c>
       <c r="E9" s="1">
@@ -660,11 +732,22 @@
         <v>371016</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
         <v>371016000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>1969</v>
+      </c>
+      <c r="J9">
+        <v>257816</v>
+      </c>
+      <c r="K9">
+        <v>480220</v>
+      </c>
+      <c r="L9">
+        <v>480220000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1970</v>
       </c>
@@ -675,7 +758,6 @@
         <v>1143743</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
         <v>1143743000</v>
       </c>
       <c r="E10" s="1">
@@ -688,11 +770,22 @@
         <v>1122423</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
         <v>1122423000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>1970</v>
+      </c>
+      <c r="J10">
+        <v>270222</v>
+      </c>
+      <c r="K10">
+        <v>1561254</v>
+      </c>
+      <c r="L10">
+        <v>1561254000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1971</v>
       </c>
@@ -703,7 +796,6 @@
         <v>1687701</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
         <v>1687701000</v>
       </c>
       <c r="E11" s="1">
@@ -716,11 +808,22 @@
         <v>1452795</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
         <v>1452795000</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>1971</v>
+      </c>
+      <c r="J11">
+        <v>274032</v>
+      </c>
+      <c r="K11">
+        <v>2034987</v>
+      </c>
+      <c r="L11">
+        <v>2034987000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1972</v>
       </c>
@@ -731,7 +834,6 @@
         <v>329293</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
         <v>329293000</v>
       </c>
       <c r="E12" s="1">
@@ -744,11 +846,22 @@
         <v>358255</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
         <v>358255000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>1972</v>
+      </c>
+      <c r="J12">
+        <v>242559</v>
+      </c>
+      <c r="K12">
+        <v>509406</v>
+      </c>
+      <c r="L12">
+        <v>509406000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1973</v>
       </c>
@@ -759,7 +872,6 @@
         <v>561402</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
         <v>561402000</v>
       </c>
       <c r="E13" s="1">
@@ -772,11 +884,22 @@
         <v>533919</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
         <v>533919000</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>1973</v>
+      </c>
+      <c r="J13">
+        <v>209190</v>
+      </c>
+      <c r="K13">
+        <v>740440</v>
+      </c>
+      <c r="L13">
+        <v>740440000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1974</v>
       </c>
@@ -787,7 +910,6 @@
         <v>550554</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
         <v>550554000</v>
       </c>
       <c r="E14" s="1">
@@ -800,11 +922,22 @@
         <v>490902</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
         <v>490902000</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>1974</v>
+      </c>
+      <c r="J14">
+        <v>227521</v>
+      </c>
+      <c r="K14">
+        <v>726505</v>
+      </c>
+      <c r="L14">
+        <v>726505000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1975</v>
       </c>
@@ -815,7 +948,6 @@
         <v>1030925</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
         <v>1030925000</v>
       </c>
       <c r="E15" s="1">
@@ -828,11 +960,22 @@
         <v>836515</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
         <v>836515000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>1975</v>
+      </c>
+      <c r="J15">
+        <v>208147</v>
+      </c>
+      <c r="K15">
+        <v>1236753</v>
+      </c>
+      <c r="L15">
+        <v>1236753000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1976</v>
       </c>
@@ -843,7 +986,6 @@
         <v>769399</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
         <v>769399000</v>
       </c>
       <c r="E16" s="1">
@@ -856,11 +998,22 @@
         <v>515555</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
         <v>515555000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>1976</v>
+      </c>
+      <c r="J16">
+        <v>177549</v>
+      </c>
+      <c r="K16">
+        <v>846614</v>
+      </c>
+      <c r="L16">
+        <v>846614000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1977</v>
       </c>
@@ -871,7 +1024,6 @@
         <v>1898803</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
         <v>1898803000</v>
       </c>
       <c r="E17" s="1">
@@ -884,11 +1036,22 @@
         <v>1266794</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
         <v>1266794000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>1977</v>
+      </c>
+      <c r="J17">
+        <v>152512</v>
+      </c>
+      <c r="K17">
+        <v>2092772</v>
+      </c>
+      <c r="L17">
+        <v>2092772000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1978</v>
       </c>
@@ -899,7 +1062,6 @@
         <v>638410</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
         <v>638410000</v>
       </c>
       <c r="E18" s="1">
@@ -912,11 +1074,22 @@
         <v>771429</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
         <v>771429000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>1978</v>
+      </c>
+      <c r="J18">
+        <v>153430</v>
+      </c>
+      <c r="K18">
+        <v>1333077</v>
+      </c>
+      <c r="L18">
+        <v>1333077000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1979</v>
       </c>
@@ -927,7 +1100,6 @@
         <v>1502822</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
         <v>1502822000</v>
       </c>
       <c r="E19" s="1">
@@ -940,11 +1112,22 @@
         <v>866312</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
         <v>866312000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>1979</v>
+      </c>
+      <c r="J19">
+        <v>155438</v>
+      </c>
+      <c r="K19">
+        <v>1636385</v>
+      </c>
+      <c r="L19">
+        <v>1636385000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1980</v>
       </c>
@@ -955,7 +1138,6 @@
         <v>2807522</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
         <v>2807522000</v>
       </c>
       <c r="E20" s="1">
@@ -968,11 +1150,22 @@
         <v>1368191</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
         <v>1368191000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>1980</v>
+      </c>
+      <c r="J20">
+        <v>171785</v>
+      </c>
+      <c r="K20">
+        <v>2623448</v>
+      </c>
+      <c r="L20">
+        <v>2623448000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1981</v>
       </c>
@@ -983,7 +1176,6 @@
         <v>609627</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
         <v>609627000</v>
       </c>
       <c r="E21" s="1">
@@ -996,11 +1188,22 @@
         <v>533919</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
         <v>533919000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>1981</v>
+      </c>
+      <c r="J21">
+        <v>186839</v>
+      </c>
+      <c r="K21">
+        <v>1056001</v>
+      </c>
+      <c r="L21">
+        <v>1056001000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1982</v>
       </c>
@@ -1011,7 +1214,6 @@
         <v>983478</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
         <v>983478000</v>
       </c>
       <c r="E22" s="1">
@@ -1024,11 +1226,22 @@
         <v>842391</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
         <v>842391000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>1982</v>
+      </c>
+      <c r="J22">
+        <v>181861</v>
+      </c>
+      <c r="K22">
+        <v>1727179</v>
+      </c>
+      <c r="L22">
+        <v>1727179000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1983</v>
       </c>
@@ -1039,7 +1252,6 @@
         <v>470856</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
         <v>470856000</v>
       </c>
       <c r="E23" s="1">
@@ -1052,11 +1264,22 @@
         <v>483110</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
         <v>483110000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>1983</v>
+      </c>
+      <c r="J23">
+        <v>153737</v>
+      </c>
+      <c r="K23">
+        <v>946949</v>
+      </c>
+      <c r="L23">
+        <v>946949000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1984</v>
       </c>
@@ -1067,7 +1290,6 @@
         <v>1485857</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
         <v>1485857000</v>
       </c>
       <c r="E24" s="1">
@@ -1080,11 +1302,22 @@
         <v>832343</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
         <v>832343000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>1984</v>
+      </c>
+      <c r="J24">
+        <v>132191</v>
+      </c>
+      <c r="K24">
+        <v>1709993</v>
+      </c>
+      <c r="L24">
+        <v>1709993000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1985</v>
       </c>
@@ -1095,7 +1328,6 @@
         <v>272216</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
         <v>272216000</v>
       </c>
       <c r="E25" s="1">
@@ -1108,11 +1340,22 @@
         <v>218163</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
         <v>218163000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>1985</v>
+      </c>
+      <c r="J25">
+        <v>134054</v>
+      </c>
+      <c r="K25">
+        <v>415817</v>
+      </c>
+      <c r="L25">
+        <v>415817000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1986</v>
       </c>
@@ -1123,7 +1366,6 @@
         <v>1668790</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
         <v>1668790000</v>
       </c>
       <c r="E26" s="1">
@@ -1136,11 +1378,22 @@
         <v>999490</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
         <v>999490000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>1986</v>
+      </c>
+      <c r="J26">
+        <v>117948</v>
+      </c>
+      <c r="K26">
+        <v>1861699</v>
+      </c>
+      <c r="L26">
+        <v>1861699000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1987</v>
       </c>
@@ -1151,7 +1404,6 @@
         <v>363028</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
         <v>363028000</v>
       </c>
       <c r="E27" s="1">
@@ -1164,11 +1416,22 @@
         <v>389648</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
         <v>389648000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>1987</v>
+      </c>
+      <c r="J27">
+        <v>124368</v>
+      </c>
+      <c r="K27">
+        <v>709276</v>
+      </c>
+      <c r="L27">
+        <v>709276000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1988</v>
       </c>
@@ -1179,7 +1442,6 @@
         <v>238095</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
         <v>238095000</v>
       </c>
       <c r="E28" s="1">
@@ -1192,11 +1454,22 @@
         <v>268874</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
         <v>268874000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <v>1988</v>
+      </c>
+      <c r="J28">
+        <v>122394</v>
+      </c>
+      <c r="K28">
+        <v>490411</v>
+      </c>
+      <c r="L28">
+        <v>490411000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1989</v>
       </c>
@@ -1207,7 +1480,6 @@
         <v>630948</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
         <v>630948000</v>
       </c>
       <c r="E29" s="1">
@@ -1220,11 +1492,22 @@
         <v>452254</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
         <v>452254000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>1989</v>
+      </c>
+      <c r="J29">
+        <v>109754</v>
+      </c>
+      <c r="K29">
+        <v>827364</v>
+      </c>
+      <c r="L29">
+        <v>827364000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1990</v>
       </c>
@@ -1235,7 +1518,6 @@
         <v>199507</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
         <v>199507000</v>
       </c>
       <c r="E30" s="1">
@@ -1248,11 +1530,22 @@
         <v>192529</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
         <v>192529000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J30">
+        <v>99409</v>
+      </c>
+      <c r="K30">
+        <v>327420</v>
+      </c>
+      <c r="L30">
+        <v>327420000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1991</v>
       </c>
@@ -1263,7 +1556,6 @@
         <v>260126</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
         <v>260126000</v>
       </c>
       <c r="E31" s="1">
@@ -1276,11 +1568,22 @@
         <v>214058</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
         <v>214058000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>1991</v>
+      </c>
+      <c r="J31">
+        <v>95607</v>
+      </c>
+      <c r="K31">
+        <v>374370</v>
+      </c>
+      <c r="L31">
+        <v>374370000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1992</v>
       </c>
@@ -1291,7 +1594,6 @@
         <v>546515</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
         <v>546515000</v>
       </c>
       <c r="E32" s="1">
@@ -1304,11 +1606,22 @@
         <v>459549</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
         <v>459549000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>1992</v>
+      </c>
+      <c r="J32">
+        <v>91400</v>
+      </c>
+      <c r="K32">
+        <v>856834</v>
+      </c>
+      <c r="L32">
+        <v>856834000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1993</v>
       </c>
@@ -1319,7 +1632,6 @@
         <v>253683</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
         <v>253683000</v>
       </c>
       <c r="E33" s="1">
@@ -1332,11 +1644,22 @@
         <v>254486</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
         <v>254486000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>1993</v>
+      </c>
+      <c r="J33">
+        <v>98815</v>
+      </c>
+      <c r="K33">
+        <v>434521</v>
+      </c>
+      <c r="L33">
+        <v>434521000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1994</v>
       </c>
@@ -1347,7 +1670,6 @@
         <v>933220</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
         <v>933220000</v>
       </c>
       <c r="E34" s="1">
@@ -1360,11 +1682,22 @@
         <v>553491</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
         <v>553491000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>1994</v>
+      </c>
+      <c r="J34">
+        <v>101722</v>
+      </c>
+      <c r="K34">
+        <v>1018661</v>
+      </c>
+      <c r="L34">
+        <v>1018661000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1995</v>
       </c>
@@ -1375,7 +1708,6 @@
         <v>410258</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
         <v>410258000</v>
       </c>
       <c r="E35" s="1">
@@ -1388,11 +1720,22 @@
         <v>321258</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
         <v>321258000</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>1995</v>
+      </c>
+      <c r="J35">
+        <v>121297</v>
+      </c>
+      <c r="K35">
+        <v>596002</v>
+      </c>
+      <c r="L35">
+        <v>596002000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1996</v>
       </c>
@@ -1403,7 +1746,6 @@
         <v>233787</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
         <v>233787000</v>
       </c>
       <c r="E36" s="1">
@@ -1416,11 +1758,22 @@
         <v>233982</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
         <v>233982000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>1996</v>
+      </c>
+      <c r="J36">
+        <v>116658</v>
+      </c>
+      <c r="K36">
+        <v>372876</v>
+      </c>
+      <c r="L36">
+        <v>372876000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1997</v>
       </c>
@@ -1431,7 +1784,6 @@
         <v>734884</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
         <v>734884000</v>
       </c>
       <c r="E37" s="1">
@@ -1444,11 +1796,22 @@
         <v>620946</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
         <v>620946000</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>1997</v>
+      </c>
+      <c r="J37">
+        <v>101519</v>
+      </c>
+      <c r="K37">
+        <v>1160081</v>
+      </c>
+      <c r="L37">
+        <v>1160081000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1998</v>
       </c>
@@ -1459,7 +1822,6 @@
         <v>96056</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
         <v>96056000</v>
       </c>
       <c r="E38" s="1">
@@ -1472,11 +1834,22 @@
         <v>96858</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
         <v>96858000</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <v>1998</v>
+      </c>
+      <c r="J38">
+        <v>102847</v>
+      </c>
+      <c r="K38">
+        <v>141210</v>
+      </c>
+      <c r="L38">
+        <v>141210000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1999</v>
       </c>
@@ -1487,7 +1860,6 @@
         <v>176681</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
         <v>176681000</v>
       </c>
       <c r="E39" s="1">
@@ -1500,11 +1872,22 @@
         <v>173685</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
         <v>173685000</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <v>1999</v>
+      </c>
+      <c r="J39">
+        <v>85819</v>
+      </c>
+      <c r="K39">
+        <v>251450</v>
+      </c>
+      <c r="L39">
+        <v>251450000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2000</v>
       </c>
@@ -1515,7 +1898,6 @@
         <v>298594</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
         <v>298594000</v>
       </c>
       <c r="E40" s="1">
@@ -1528,11 +1910,22 @@
         <v>310519</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
         <v>310519000</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J40">
+        <v>68255</v>
+      </c>
+      <c r="K40">
+        <v>457257</v>
+      </c>
+      <c r="L40">
+        <v>457257000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2001</v>
       </c>
@@ -1543,7 +1936,6 @@
         <v>85979</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
         <v>85979000</v>
       </c>
       <c r="E41" s="1">
@@ -1556,11 +1948,22 @@
         <v>116658</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
         <v>116658000</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>2001</v>
+      </c>
+      <c r="J41">
+        <v>63513</v>
+      </c>
+      <c r="K41">
+        <v>167042</v>
+      </c>
+      <c r="L41">
+        <v>167042000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2002</v>
       </c>
@@ -1571,7 +1974,6 @@
         <v>153946</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
         <v>153946000</v>
       </c>
       <c r="E42" s="1">
@@ -1584,11 +1986,22 @@
         <v>139107</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
         <v>139107000</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <v>2002</v>
+      </c>
+      <c r="J42">
+        <v>56387</v>
+      </c>
+      <c r="K42">
+        <v>246965</v>
+      </c>
+      <c r="L42">
+        <v>246965000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2003</v>
       </c>
@@ -1599,7 +2012,6 @@
         <v>72800</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
         <v>72800000</v>
       </c>
       <c r="E43" s="1">
@@ -1612,11 +2024,22 @@
         <v>63959</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
         <v>63959000</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>2003</v>
+      </c>
+      <c r="J43">
+        <v>56783</v>
+      </c>
+      <c r="K43">
+        <v>123254</v>
+      </c>
+      <c r="L43">
+        <v>123254000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2004</v>
       </c>
@@ -1627,7 +2050,6 @@
         <v>106957</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
         <v>106957000</v>
       </c>
       <c r="E44" s="1">
@@ -1640,11 +2062,22 @@
         <v>107045</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
         <v>107045000</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <v>2004</v>
+      </c>
+      <c r="J44">
+        <v>46212</v>
+      </c>
+      <c r="K44">
+        <v>201793</v>
+      </c>
+      <c r="L44">
+        <v>201793000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2005</v>
       </c>
@@ -1655,7 +2088,6 @@
         <v>86305</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
         <v>86305000</v>
       </c>
       <c r="E45" s="1">
@@ -1668,11 +2100,22 @@
         <v>75282</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
         <v>75282000</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <v>2005</v>
+      </c>
+      <c r="J45">
+        <v>47620</v>
+      </c>
+      <c r="K45">
+        <v>154508</v>
+      </c>
+      <c r="L45">
+        <v>154508000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2006</v>
       </c>
@@ -1683,7 +2126,6 @@
         <v>209886</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
         <v>209886000</v>
       </c>
       <c r="E46" s="1">
@@ -1696,11 +2138,22 @@
         <v>181317</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
         <v>181317000</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J46">
+        <v>43261</v>
+      </c>
+      <c r="K46">
+        <v>358255</v>
+      </c>
+      <c r="L46">
+        <v>358255000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2007</v>
       </c>
@@ -1711,7 +2164,6 @@
         <v>100583</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
         <v>100583000</v>
       </c>
       <c r="E47" s="1">
@@ -1724,11 +2176,22 @@
         <v>72620</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
         <v>72620000</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>2007</v>
+      </c>
+      <c r="J47">
+        <v>72766</v>
+      </c>
+      <c r="K47">
+        <v>168552</v>
+      </c>
+      <c r="L47">
+        <v>168552000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2008</v>
       </c>
@@ -1739,7 +2202,6 @@
         <v>104946</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
         <v>104946000</v>
       </c>
       <c r="E48" s="1">
@@ -1752,11 +2214,22 @@
         <v>87728</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
         <v>87728000</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>2008</v>
+      </c>
+      <c r="J48">
+        <v>81227</v>
+      </c>
+      <c r="K48">
+        <v>196025</v>
+      </c>
+      <c r="L48">
+        <v>196025000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2009</v>
       </c>
@@ -1767,7 +2240,6 @@
         <v>97958</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
         <v>97958000</v>
       </c>
       <c r="E49" s="1">
@@ -1780,11 +2252,22 @@
         <v>94750</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
         <v>94750000</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1">
+        <v>2009</v>
+      </c>
+      <c r="J49">
+        <v>90944</v>
+      </c>
+      <c r="K49">
+        <v>193300</v>
+      </c>
+      <c r="L49">
+        <v>193300000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2010</v>
       </c>
@@ -1801,11 +2284,22 @@
         <v>165215</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
         <v>165215000</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <v>2010</v>
+      </c>
+      <c r="J50">
+        <v>93060</v>
+      </c>
+      <c r="K50">
+        <v>296262</v>
+      </c>
+      <c r="L50">
+        <v>296262000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2011</v>
       </c>
@@ -1815,11 +2309,94 @@
       <c r="F51">
         <v>54721</v>
       </c>
+      <c r="I51" s="1">
+        <v>2011</v>
+      </c>
+      <c r="J51">
+        <v>105662</v>
+      </c>
+      <c r="K51">
+        <v>148153</v>
+      </c>
+      <c r="L51">
+        <v>148153000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J52">
+        <v>106831</v>
+      </c>
+      <c r="K52">
+        <v>203211</v>
+      </c>
+      <c r="L52">
+        <v>203211000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I53" s="1">
+        <v>2013</v>
+      </c>
+      <c r="J53">
+        <v>117477</v>
+      </c>
+      <c r="K53">
+        <v>263024</v>
+      </c>
+      <c r="L53">
+        <v>263024000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I54" s="1">
+        <v>2014</v>
+      </c>
+      <c r="J54">
+        <v>126880</v>
+      </c>
+      <c r="K54">
+        <v>391601</v>
+      </c>
+      <c r="L54">
+        <v>391601000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <v>2015</v>
+      </c>
+      <c r="J55">
+        <v>151146</v>
+      </c>
+      <c r="K55">
+        <v>169058</v>
+      </c>
+      <c r="L55">
+        <v>169058000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I56" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J56">
+        <v>161135</v>
+      </c>
+      <c r="K56">
+        <v>196026</v>
+      </c>
+      <c r="L56">
+        <v>196026000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
